--- a/mConnect/src/test/java/testData/Login Details.xlsx
+++ b/mConnect/src/test/java/testData/Login Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prathamesh.lad@nanostuffs.com\mConnect Automation\mConnect\mConnect\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81364A32-DF3D-4A45-8BEA-7D1FFD9BC41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D7408F-8220-44D4-A151-7200E7513F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+  <si>
+    <t>indranil.sengupta@pidilite.com</t>
+  </si>
+  <si>
+    <t>jay.mehta@pidilite.com</t>
+  </si>
+  <si>
+    <t>Pidilite@123</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>cs.anand@pidilite.com</t>
+  </si>
   <si>
     <t>diwakar.jha@pidilite.com</t>
   </si>
   <si>
-    <t>indranil.sengupta@pidilite.com</t>
-  </si>
-  <si>
-    <t>jay.mehta@pidilite.com</t>
-  </si>
-  <si>
     <t>krishan.kalla@pidilite.com</t>
   </si>
   <si>
@@ -66,20 +78,56 @@
     <t>gopalakrishnan.vp@pidilite.com</t>
   </si>
   <si>
-    <t>Pidilite@123</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>mohd.adnan@pidilite.com</t>
+  </si>
+  <si>
+    <t>shubham.yadav@pidilite.com</t>
+  </si>
+  <si>
+    <t>mangala.dubey@pidilite.com</t>
+  </si>
+  <si>
+    <t>diksha.na@pidilite.com</t>
+  </si>
+  <si>
+    <t>golandaz.khan@pidilite.com</t>
+  </si>
+  <si>
+    <t>p.sridhar@pidilite.com</t>
+  </si>
+  <si>
+    <t>rajkumar.dubey@pidilite.com</t>
+  </si>
+  <si>
+    <t>upendra.choudhary@pidilite.com</t>
+  </si>
+  <si>
+    <t>govindrakesh.iyer@pidilite.com</t>
+  </si>
+  <si>
+    <t>joseph.reddy@pidilite.com</t>
+  </si>
+  <si>
+    <t>namani.kumar@pidilite.com</t>
+  </si>
+  <si>
+    <t>sanjaya.sahu@pidilite.com</t>
+  </si>
+  <si>
+    <t>tejaskumar.suthar@pidilite.com</t>
+  </si>
+  <si>
+    <t>bibin.krishnan@pidilite.com</t>
+  </si>
+  <si>
+    <t>shalini.ghosh@pidilite.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +143,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,6 +187,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -135,8 +206,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -418,133 +491,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{364C39D2-242B-4EA8-8C59-81AF84AE599F}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{9E4DFAF3-8520-4562-8953-0C6CF2EE0561}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:cs.anand@pidilite.com" xr:uid="{F41B3CA1-9470-44FE-96E8-904D96753D39}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:diwakar.jha@pidilite.com" xr:uid="{D7A490B2-629A-4009-9195-005783496A16}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:indranil.sengupta@pidilite.com" xr:uid="{BFD3E7F2-873F-466F-8922-A7A7FEB8192F}"/>
+    <hyperlink ref="A5" r:id="rId4" display="mailto:jay.mehta@pidilite.com" xr:uid="{850F8B19-CE72-47E4-AFC4-1B5C07BAE12C}"/>
+    <hyperlink ref="A6" r:id="rId5" display="mailto:krishan.kalla@pidilite.com" xr:uid="{42A0662F-7DC8-4945-9348-8628D51BDFAF}"/>
+    <hyperlink ref="A7" r:id="rId6" display="mailto:manjunatha.yv@pidilite.com" xr:uid="{9606B2F0-6994-4A54-A712-C191D176E9B2}"/>
+    <hyperlink ref="A8" r:id="rId7" display="mailto:mehra.surender@pidilite.com" xr:uid="{958F8970-B57F-4670-882B-F3CDFF1C6323}"/>
+    <hyperlink ref="A9" r:id="rId8" display="mailto:nawlesh.kumar@pidilite.com" xr:uid="{59152759-123C-47EF-BEA4-4E7E7520ECDB}"/>
+    <hyperlink ref="A10" r:id="rId9" display="mailto:sanjay.kaul@pidilite.com" xr:uid="{AD844582-BC3F-4B05-BFD1-E1126F78BE14}"/>
+    <hyperlink ref="A11" r:id="rId10" display="mailto:senthilkumar.p@pidilite.com" xr:uid="{797009E5-4351-4EB4-B0F8-A93C44B70FFE}"/>
+    <hyperlink ref="A12" r:id="rId11" display="mailto:shwetank.mishra@pidilite.com" xr:uid="{557497E2-9973-4666-85E9-B157656D8654}"/>
+    <hyperlink ref="A13" r:id="rId12" display="mailto:aditi.goel@pidilite.com" xr:uid="{EE047739-8707-493E-8217-1F227FD02034}"/>
+    <hyperlink ref="A14" r:id="rId13" display="mailto:avantika.mehta@pidilite.com" xr:uid="{A986AC4A-F480-4640-A704-A111EC2FF98F}"/>
+    <hyperlink ref="A15" r:id="rId14" display="mailto:gopalakrishnan.vp@pidilite.com" xr:uid="{A1C2E429-D4E7-47C1-AC5A-94B91E5D7F37}"/>
+    <hyperlink ref="A16" r:id="rId15" display="mailto:mohd.adnan@pidilite.com" xr:uid="{E1625253-A51E-460B-90DE-6F81245AE4C4}"/>
+    <hyperlink ref="A17" r:id="rId16" display="mailto:shubham.yadav@pidilite.com" xr:uid="{2CE8511E-8D0B-4B9D-BB95-3B1285D986FD}"/>
+    <hyperlink ref="A18" r:id="rId17" display="mailto:mangala.dubey@pidilite.com" xr:uid="{5A4A1D7E-54B1-4152-B1EC-AF5C5D86A394}"/>
+    <hyperlink ref="A19" r:id="rId18" display="mailto:diksha.na@pidilite.com" xr:uid="{E59D7221-1618-44A8-88F6-EDB306768FCE}"/>
+    <hyperlink ref="A20" r:id="rId19" display="mailto:golandaz.khan@pidilite.com" xr:uid="{0E79596E-D355-4C8E-8F10-7221D8DBD1B9}"/>
+    <hyperlink ref="A21" r:id="rId20" display="mailto:p.sridhar@pidilite.com" xr:uid="{C9C718E1-A550-4409-93E6-424DF80F26FA}"/>
+    <hyperlink ref="A22" r:id="rId21" display="mailto:rajkumar.dubey@pidilite.com" xr:uid="{95A90561-A5B5-4331-8AC0-49F70D4B337C}"/>
+    <hyperlink ref="A23" r:id="rId22" display="mailto:upendra.choudhary@pidilite.com" xr:uid="{782741A8-97B5-4D68-B705-9CE15372EC22}"/>
+    <hyperlink ref="A24" r:id="rId23" display="mailto:diksha.na@pidilite.com" xr:uid="{4F9ACE5C-517E-4E2A-AACB-35ADE19E30E6}"/>
+    <hyperlink ref="A25" r:id="rId24" display="mailto:govindrakesh.iyer@pidilite.com" xr:uid="{ABC05641-DAEB-4E20-846E-4F1693DE37F8}"/>
+    <hyperlink ref="A26" r:id="rId25" display="mailto:joseph.reddy@pidilite.com" xr:uid="{96E34D3F-EA1F-410B-BF6F-3B8C74915794}"/>
+    <hyperlink ref="A27" r:id="rId26" display="mailto:namani.kumar@pidilite.com" xr:uid="{D9CCEF80-ABB5-4A12-9B93-ACA741665FB9}"/>
+    <hyperlink ref="A28" r:id="rId27" display="mailto:sanjaya.sahu@pidilite.com" xr:uid="{590A3C5E-3A7E-497F-BF75-B5E5AE4FAD34}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:tejaskumar.suthar@pidilite.com" xr:uid="{5F091776-3B83-4E23-8B6B-5317D0B9D8E2}"/>
+    <hyperlink ref="A30" r:id="rId29" display="mailto:bibin.krishnan@pidilite.com" xr:uid="{86A0048F-C2E6-4481-9163-CED3E1F302A6}"/>
+    <hyperlink ref="A31" r:id="rId30" display="mailto:shalini.ghosh@pidilite.com" xr:uid="{3F98D5B3-0CE6-43DB-9574-212B6AD33869}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
